--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>44</v>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\MavenProject\TestData\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="55">
   <si>
     <t>Y</t>
   </si>
@@ -161,14 +161,43 @@
   </si>
   <si>
     <t>CHROME</t>
+  </si>
+  <si>
+    <t>Testing3</t>
+  </si>
+  <si>
+    <t>Testing4</t>
+  </si>
+  <si>
+    <t>Testing5</t>
+  </si>
+  <si>
+    <t>Testing6</t>
+  </si>
+  <si>
+    <t>Testing7</t>
+  </si>
+  <si>
+    <t>Testing8</t>
+  </si>
+  <si>
+    <t>Testing9</t>
+  </si>
+  <si>
+    <t>Testing10</t>
+  </si>
+  <si>
+    <t>Testing11</t>
+  </si>
+  <si>
+    <t>Testing12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -253,6 +282,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -534,17 +564,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -574,6 +604,86 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -588,30 +698,30 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -737,7 +847,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>44</v>
@@ -914,7 +1024,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>44</v>
@@ -1298,12 +1408,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="6" max="8" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
